--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H2">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I2">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J2">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N2">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O2">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P2">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q2">
-        <v>40202.45734984738</v>
+        <v>33.127703971072</v>
       </c>
       <c r="R2">
-        <v>361822.1161486264</v>
+        <v>298.149335739648</v>
       </c>
       <c r="S2">
-        <v>0.8867326230121347</v>
+        <v>0.2884736586663189</v>
       </c>
       <c r="T2">
-        <v>0.8867326230121348</v>
+        <v>0.2884736586663189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H3">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I3">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J3">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.096729</v>
       </c>
       <c r="O3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q3">
-        <v>4763.556191114017</v>
+        <v>58.041920291584</v>
       </c>
       <c r="R3">
-        <v>42872.00572002615</v>
+        <v>522.3772826242559</v>
       </c>
       <c r="S3">
-        <v>0.1050682210655529</v>
+        <v>0.5054248588176536</v>
       </c>
       <c r="T3">
-        <v>0.1050682210655529</v>
+        <v>0.5054248588176536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H4">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I4">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J4">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N4">
         <v>1.640145</v>
       </c>
       <c r="O4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q4">
-        <v>251.2458101003066</v>
+        <v>3.06132408192</v>
       </c>
       <c r="R4">
-        <v>2261.21229090276</v>
+        <v>27.55191673728</v>
       </c>
       <c r="S4">
-        <v>0.005541647722484292</v>
+        <v>0.02665778947571883</v>
       </c>
       <c r="T4">
-        <v>0.005541647722484292</v>
+        <v>0.02665778947571883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.673579</v>
       </c>
       <c r="I5">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J5">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N5">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O5">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P5">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q5">
-        <v>107.123040418758</v>
+        <v>7.244545550494778</v>
       </c>
       <c r="R5">
-        <v>964.1073637688221</v>
+        <v>65.200909954453</v>
       </c>
       <c r="S5">
-        <v>0.002362778319468097</v>
+        <v>0.0630849805392777</v>
       </c>
       <c r="T5">
-        <v>0.002362778319468097</v>
+        <v>0.0630849805392777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.673579</v>
       </c>
       <c r="I6">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J6">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>31.096729</v>
       </c>
       <c r="O6">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P6">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q6">
         <v>12.69292118034345</v>
@@ -818,10 +818,10 @@
         <v>114.236290623091</v>
       </c>
       <c r="S6">
-        <v>0.000279963664757795</v>
+        <v>0.1105290428595434</v>
       </c>
       <c r="T6">
-        <v>0.0002799636647577951</v>
+        <v>0.1105290428595434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.673579</v>
       </c>
       <c r="I7">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J7">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N7">
         <v>1.640145</v>
       </c>
       <c r="O7">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P7">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q7">
-        <v>0.6694669143283333</v>
+        <v>0.6694669143283334</v>
       </c>
       <c r="R7">
-        <v>6.025202228955</v>
+        <v>6.025202228955001</v>
       </c>
       <c r="S7">
-        <v>1.476621560210316E-05</v>
+        <v>0.005829669641487562</v>
       </c>
       <c r="T7">
-        <v>1.476621560210316E-05</v>
+        <v>0.005829669641487562</v>
       </c>
     </row>
   </sheetData>
